--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 25348-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 25348-2023.xlsx", "A 25348-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 25348-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 25348-2023.png", "A 25348-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 25348-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 25348-2023.docx", "A 25348-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 25348-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 25348-2023.docx", "A 25348-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 25348-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 25348-2023.docx", "A 25348-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 25348-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 25348-2023.docx", "A 25348-2023")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 33612-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 33612-2023.xlsx", "A 33612-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 33612-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 33612-2023.png", "A 33612-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 33612-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 33612-2023.docx", "A 33612-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 33612-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 33612-2023.docx", "A 33612-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 33612-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 33612-2023.docx", "A 33612-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 33612-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 33612-2023.docx", "A 33612-2023")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,27 +816,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 8258-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 8258-2019.xlsx", "A 8258-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 8258-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 8258-2019.png", "A 8258-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 8258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 8258-2019.docx", "A 8258-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 8258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 8258-2019.docx", "A 8258-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 8258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 8258-2019.docx", "A 8258-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 8258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 8258-2019.docx", "A 8258-2019")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -910,27 +910,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 7651-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 7651-2019.xlsx", "A 7651-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 7651-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 7651-2019.png", "A 7651-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 7651-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 7651-2019.docx", "A 7651-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 7651-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 7651-2019.docx", "A 7651-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 7651-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 7651-2019.docx", "A 7651-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 7651-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 7651-2019.docx", "A 7651-2019")</f>
         <v/>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -998,27 +998,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 71925-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 71925-2018.xlsx", "A 71925-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 71925-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 71925-2018.png", "A 71925-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 71925-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 71925-2018.docx", "A 71925-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 71925-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 71925-2018.docx", "A 71925-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 71925-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 71925-2018.docx", "A 71925-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 71925-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 71925-2018.docx", "A 71925-2018")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1085,27 +1085,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 51852-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 51852-2022.xlsx", "A 51852-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 51852-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 51852-2022.png", "A 51852-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 51852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 51852-2022.docx", "A 51852-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 51852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 51852-2022.docx", "A 51852-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 51852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 51852-2022.docx", "A 51852-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 51852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 51852-2022.docx", "A 51852-2022")</f>
         <v/>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,27 +1171,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 38501-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 38501-2018.xlsx", "A 38501-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 38501-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 38501-2018.png", "A 38501-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 38501-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 38501-2018.docx", "A 38501-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 38501-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 38501-2018.docx", "A 38501-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 38501-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 38501-2018.docx", "A 38501-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 38501-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 38501-2018.docx", "A 38501-2018")</f>
         <v/>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,27 +1262,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 10931-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 10931-2019.xlsx", "A 10931-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 10931-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 10931-2019.png", "A 10931-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 10931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 10931-2019.docx", "A 10931-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 10931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 10931-2019.docx", "A 10931-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 10931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 10931-2019.docx", "A 10931-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 10931-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 10931-2019.docx", "A 10931-2019")</f>
         <v/>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,27 +1353,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 30638-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 30638-2020.xlsx", "A 30638-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 30638-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 30638-2020.png", "A 30638-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 30638-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 30638-2020.docx", "A 30638-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 30638-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 30638-2020.docx", "A 30638-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 30638-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 30638-2020.docx", "A 30638-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 30638-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 30638-2020.docx", "A 30638-2020")</f>
         <v/>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,27 +1444,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 30824-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 30824-2020.xlsx", "A 30824-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 30824-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 30824-2020.png", "A 30824-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 30824-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 30824-2020.docx", "A 30824-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 30824-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 30824-2020.docx", "A 30824-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 30824-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 30824-2020.docx", "A 30824-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 30824-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 30824-2020.docx", "A 30824-2020")</f>
         <v/>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,27 +1535,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 27184-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 27184-2023.xlsx", "A 27184-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 27184-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 27184-2023.png", "A 27184-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 27184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 27184-2023.docx", "A 27184-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 27184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 27184-2023.docx", "A 27184-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 27184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 27184-2023.docx", "A 27184-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 27184-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 27184-2023.docx", "A 27184-2023")</f>
         <v/>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,27 +1620,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 1771-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 1771-2019.xlsx", "A 1771-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 1771-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 1771-2019.png", "A 1771-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 1771-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 1771-2019.docx", "A 1771-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 1771-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 1771-2019.docx", "A 1771-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 1771-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 1771-2019.docx", "A 1771-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 1771-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 1771-2019.docx", "A 1771-2019")</f>
         <v/>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,27 +1710,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 19162-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 19162-2021.xlsx", "A 19162-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 19162-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 19162-2021.png", "A 19162-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 19162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 19162-2021.docx", "A 19162-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 19162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 19162-2021.docx", "A 19162-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 19162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 19162-2021.docx", "A 19162-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 19162-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 19162-2021.docx", "A 19162-2021")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,27 +1800,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 8098-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 8098-2022.xlsx", "A 8098-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 8098-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 8098-2022.png", "A 8098-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 8098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 8098-2022.docx", "A 8098-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 8098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 8098-2022.docx", "A 8098-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 8098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 8098-2022.docx", "A 8098-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 8098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 8098-2022.docx", "A 8098-2022")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,27 +1885,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 13277-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 13277-2022.xlsx", "A 13277-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 13277-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 13277-2022.png", "A 13277-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 13277-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 13277-2022.docx", "A 13277-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 13277-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 13277-2022.docx", "A 13277-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 13277-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 13277-2022.docx", "A 13277-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 13277-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 13277-2022.docx", "A 13277-2022")</f>
         <v/>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1975,27 +1975,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 25467-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 25467-2022.xlsx", "A 25467-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 25467-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 25467-2022.png", "A 25467-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 25467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 25467-2022.docx", "A 25467-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 25467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 25467-2022.docx", "A 25467-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 25467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 25467-2022.docx", "A 25467-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 25467-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 25467-2022.docx", "A 25467-2022")</f>
         <v/>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2065,27 +2065,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 50515-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 50515-2022.xlsx", "A 50515-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 50515-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 50515-2022.png", "A 50515-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 50515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 50515-2022.docx", "A 50515-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 50515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 50515-2022.docx", "A 50515-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 50515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 50515-2022.docx", "A 50515-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 50515-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 50515-2022.docx", "A 50515-2022")</f>
         <v/>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2150,27 +2150,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 3247-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 3247-2023.xlsx", "A 3247-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 3247-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 3247-2023.png", "A 3247-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 3247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 3247-2023.docx", "A 3247-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 3247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 3247-2023.docx", "A 3247-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 3247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 3247-2023.docx", "A 3247-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 3247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 3247-2023.docx", "A 3247-2023")</f>
         <v/>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2235,31 +2235,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 9601-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 9601-2023.xlsx", "A 9601-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 9601-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 9601-2023.png", "A 9601-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/knärot/A 9601-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/knärot/A 9601-2023.png", "A 9601-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 9601-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 9601-2023.docx", "A 9601-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 9601-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 9601-2023.docx", "A 9601-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 9601-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 9601-2023.docx", "A 9601-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 9601-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 9601-2023.docx", "A 9601-2023")</f>
         <v/>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2329,27 +2329,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 27182-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/artfynd/A 27182-2023.xlsx", "A 27182-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 27182-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/kartor/A 27182-2023.png", "A 27182-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 27182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomål/A 27182-2023.docx", "A 27182-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 27182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/klagomålsmail/A 27182-2023.docx", "A 27182-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 27182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsyn/A 27182-2023.docx", "A 27182-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 27182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TRANEMO/tillsynsmail/A 27182-2023.docx", "A 27182-2023")</f>
         <v/>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y369"/>
+  <dimension ref="A1:Y370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
       </c>
       <c r="R368" s="2" t="inlineStr"/>
     </row>
-    <row r="369">
+    <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
           <t>A 40175-2023</t>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22468,6 +22468,63 @@
         <v>0</v>
       </c>
       <c r="R369" s="2" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>A 44441-2023</t>
+        </is>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C370" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>TRANEMO</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45189</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45189</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45189</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45189</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -572,7 +572,7 @@
         <v>45087</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43500</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43339</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44008</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45096</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43474</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44308</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44609</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44947</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44983</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43339</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43355</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43355</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43356</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43367</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43389</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43402</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43403</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43404</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43420</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43427</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43447</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43453</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43472</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43472</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43478</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43479</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43479</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43496</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43500</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43500</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43532</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43594</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>43594</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43595</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>43599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>43599</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>43601</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43606</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43606</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43608</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43616</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43626</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43641</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43654</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>43697</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43698</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43698</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43699</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43710</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43714</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43719</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43720</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43727</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43732</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43734</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43740</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43740</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43747</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43748</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43759</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>43761</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>43770</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43773</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>43795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43800</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43811</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43818</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43871</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43893</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>43894</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>43899</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>43913</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43916</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43920</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43936</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43948</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43966</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43970</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43976</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43980</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43985</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44049</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>44070</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44081</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44083</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44084</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44098</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44104</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44123</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44132</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44133</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44137</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44137</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44139</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44147</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44152</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44153</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44154</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44154</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44155</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44158</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44159</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44161</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44165</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44175</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44179</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44209</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44218</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44238</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44238</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44251</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44258</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44263</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44267</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>44270</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>44270</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44312</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44313</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44323</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>44323</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>44323</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>44327</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         <v>44348</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>44350</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         <v>44355</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44366</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>44366</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44375</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44390</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>44393</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         <v>44393</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>44396</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44421</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>44433</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44434</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44438</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44447</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44461</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44462</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44466</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44469</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44491</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>44494</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>44502</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44509</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44514</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44523</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>44525</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44530</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44530</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44537</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44544</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44552</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44574</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44585</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44585</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44589</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44596</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>44596</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>44599</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44599</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44599</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44622</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>44630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>44637</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44665</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44670</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44670</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44705</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44720</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44725</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44726</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44734</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44735</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44749</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44770</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44775</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44824</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44827</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44831</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44838</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44851</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44851</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44866</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44866</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44866</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44866</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>44866</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44866</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44867</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44867</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44867</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44882</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44886</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44886</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44887</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44896</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44908</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44923</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44931</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44947</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44952</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44952</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44952</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44958</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44958</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44958</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44958</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44958</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44958</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44970</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44970</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44977</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44984</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44998</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>45005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45006</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>45006</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45006</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45020</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45034</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45035</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45035</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>45044</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45044</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45061</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45063</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45067</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45075</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>45079</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45089</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45089</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45093</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45093</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45093</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>45096</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>45096</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45096</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>45096</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>45097</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>45103</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45104</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45113</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45140</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45168</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45169</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>45169</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>45169</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45169</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>45169</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45189</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
